--- a/sql_lib.xlsx
+++ b/sql_lib.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t>Language</t>
   </si>
@@ -389,6 +389,18 @@
   </si>
   <si>
     <t>multi group by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT count(DISTINCT DGIBSSREF) FROM ymyles/imtransb  </t>
+  </si>
+  <si>
+    <t>count distinct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE YMYLES/LNSTLSACC SET LLSRACC = 0 WHERE LLSRACC is NULL </t>
+  </si>
+  <si>
+    <t>Update Null</t>
   </si>
 </sst>
 </file>
@@ -789,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A2:A32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.5" customHeight="1"/>
@@ -1147,6 +1159,28 @@
       </c>
       <c r="C32" s="4" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/sql_lib.xlsx
+++ b/sql_lib.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-105" windowWidth="9540" windowHeight="13320"/>
+    <workbookView xWindow="45" yWindow="-105" windowWidth="9540" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>insert into mylhist (CUSTHS,STATHS,PGRPHS,PTYPHS,AMTHS)  select CUSTHS,STATHS,PGRPHS,PTYPHS,AMTHS from mylhist#1</t>
   </si>
   <si>
-    <t>SQL</t>
-  </si>
-  <si>
     <t>SELECT dmacct,dmcmcn,dmcbal, B.DBJACN, B.DBJCCY FROM zusrlib/tap00201 a,ymyles/dbtspf b 
 WHERE dmacct= dbjacn and dmcmcn&lt;&gt;dbjccyV</t>
   </si>
@@ -57,7 +54,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -69,7 +66,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -80,7 +77,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -93,7 +90,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -105,7 +102,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="3" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -116,7 +113,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,7 +127,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="3" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -141,7 +138,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="3"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -152,7 +149,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -162,7 +159,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -173,7 +170,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -390,30 +387,34 @@
   <si>
     <t>multi group by</t>
   </si>
+  <si>
+    <t>SQL400</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -421,36 +422,43 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="3" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -497,15 +505,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -579,6 +592,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -613,6 +627,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -788,14 +803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A2:A32"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
@@ -803,390 +818,394 @@
     <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" customHeight="1">
+    <row r="1" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="37.5" customHeight="1">
+    <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="37.5" customHeight="1">
+    <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="37.5" customHeight="1">
+    <row r="5" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sql_lib.xlsx
+++ b/sql_lib.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>Language</t>
   </si>
@@ -265,12 +265,6 @@
     <t>Read Active Loan Account w/ Personal Information</t>
   </si>
   <si>
-    <t>Read Active Saving Account w/ Personal Information</t>
-  </si>
-  <si>
-    <t>Read Active Transaction Account w/ Personal Information</t>
-  </si>
-  <si>
     <t>APP#=50</t>
   </si>
   <si>
@@ -401,6 +395,20 @@
   </si>
   <si>
     <t>Update Null</t>
+  </si>
+  <si>
+    <t>Read Active 定期 Account w/ Personal Information</t>
+  </si>
+  <si>
+    <t>Read Active 活期 Account w/ Personal Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCM staff </t>
+  </si>
+  <si>
+    <t>select cup00301.cunbr                 
+ from zusrlib/cup00301, zusrlib/cup027                
+where cup00301.cunbr=cup027.cunbr and cuten1 like 'B%'</t>
   </si>
 </sst>
 </file>
@@ -801,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.5" customHeight="1"/>
@@ -977,10 +985,10 @@
         <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1">
@@ -988,13 +996,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="37.5" customHeight="1">
@@ -1002,13 +1010,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="37.5" customHeight="1">
@@ -1016,10 +1024,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="37.5" customHeight="1">
@@ -1027,10 +1035,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1">
@@ -1038,10 +1046,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="37.5" customHeight="1">
@@ -1052,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="37.5" customHeight="1">
@@ -1060,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="37.5" customHeight="1">
@@ -1071,10 +1079,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="37.5" customHeight="1">
@@ -1082,10 +1090,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="37.5" customHeight="1">
@@ -1093,10 +1101,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="37.5" customHeight="1">
@@ -1104,10 +1112,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="37.5" customHeight="1">
@@ -1115,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="37.5" customHeight="1">
@@ -1123,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="37.5" customHeight="1">
@@ -1147,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="37.5" customHeight="1">
@@ -1155,10 +1163,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="37.5" customHeight="1">
@@ -1166,10 +1174,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="37.5" customHeight="1">
@@ -1177,10 +1185,21 @@
         <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/sql_lib.xlsx
+++ b/sql_lib.xlsx
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.5" customHeight="1"/>

--- a/sql_lib.xlsx
+++ b/sql_lib.xlsx
@@ -262,9 +262,6 @@
     <t>CIFs-map-ACCs model</t>
   </si>
   <si>
-    <t>Read Active Loan Account w/ Personal Information</t>
-  </si>
-  <si>
     <t>APP#=50</t>
   </si>
   <si>
@@ -397,18 +394,21 @@
     <t>Update Null</t>
   </si>
   <si>
-    <t>Read Active 定期 Account w/ Personal Information</t>
-  </si>
-  <si>
-    <t>Read Active 活期 Account w/ Personal Information</t>
-  </si>
-  <si>
     <t xml:space="preserve">BCM staff </t>
   </si>
   <si>
     <t>select cup00301.cunbr                 
  from zusrlib/cup00301, zusrlib/cup027                
 where cup00301.cunbr=cup027.cunbr and cuten1 like 'B%'</t>
+  </si>
+  <si>
+    <t>Read Active TMP003</t>
+  </si>
+  <si>
+    <t>Read Active TAP00201</t>
+  </si>
+  <si>
+    <t>Read Active LNP00301</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,6 +519,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -811,14 +820,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="67.28515625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -981,42 +990,42 @@
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>62</v>
+      <c r="B16" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="37.5" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>61</v>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="37.5" customHeight="1">
@@ -1024,10 +1033,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="37.5" customHeight="1">
@@ -1035,10 +1044,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1">
@@ -1046,10 +1055,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="37.5" customHeight="1">
@@ -1060,7 +1069,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="37.5" customHeight="1">
@@ -1068,10 +1077,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="37.5" customHeight="1">
@@ -1079,10 +1088,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="37.5" customHeight="1">
@@ -1090,10 +1099,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="37.5" customHeight="1">
@@ -1101,10 +1110,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="37.5" customHeight="1">
@@ -1112,10 +1121,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="37.5" customHeight="1">
@@ -1123,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="37.5" customHeight="1">
@@ -1131,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="37.5" customHeight="1">
@@ -1155,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="37.5" customHeight="1">
@@ -1163,10 +1172,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="37.5" customHeight="1">
@@ -1174,10 +1183,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="37.5" customHeight="1">
@@ -1185,10 +1194,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="37.5" customHeight="1">
@@ -1196,10 +1205,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/sql_lib.xlsx
+++ b/sql_lib.xlsx
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.5" customHeight="1"/>

--- a/sql_lib.xlsx
+++ b/sql_lib.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>Language</t>
   </si>
@@ -409,6 +409,17 @@
   </si>
   <si>
     <t>Read Active LNP00301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT CUBK, CUNBR, CUSTAT,    
+  case custat                  
+  when 'R' then 'assigned'     
+  when ' ' then 'n/a'          
+  end                          
+FROM zusrlib/cup00301          </t>
+  </si>
+  <si>
+    <t>Case expression</t>
   </si>
 </sst>
 </file>
@@ -818,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.5" customHeight="1"/>
@@ -1209,6 +1220,17 @@
       </c>
       <c r="C35" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/sql_lib.xlsx
+++ b/sql_lib.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>Language</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>Case expression</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT TRIM(LXMEMO)||'$' FROM ifrs201608/bdplkg0816  </t>
   </si>
 </sst>
 </file>
@@ -829,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.5" customHeight="1"/>
@@ -1231,6 +1237,17 @@
       </c>
       <c r="C36" s="4" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/sql_lib.xlsx
+++ b/sql_lib.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>Language</t>
   </si>
@@ -426,6 +426,13 @@
   </si>
   <si>
     <t xml:space="preserve">SELECT TRIM(LXMEMO)||'$' FROM ifrs201608/bdplkg0816  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> select YEAR(TIMESTAMP_FORMAT(DIGITS(BDPPOSTD),'YYYYMMDD')) 
+ from iprod/bdppay                                          </t>
+  </si>
+  <si>
+    <t>Parse string/numeric to date</t>
   </si>
 </sst>
 </file>
@@ -835,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.5" customHeight="1"/>
@@ -1248,6 +1255,17 @@
       </c>
       <c r="C37" s="3" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/sql_lib.xlsx
+++ b/sql_lib.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
   <si>
     <t>Language</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>insert into mylhist (CUSTHS,STATHS,PGRPHS,PTYPHS,AMTHS)  select CUSTHS,STATHS,PGRPHS,PTYPHS,AMTHS from mylhist#1</t>
-  </si>
-  <si>
-    <t>SQL</t>
   </si>
   <si>
     <t>SELECT dmacct,dmcmcn,dmcbal, B.DBJACN, B.DBJCCY FROM zusrlib/tap00201 a,ymyles/dbtspf b 
@@ -433,6 +430,19 @@
   </si>
   <si>
     <t>Parse string/numeric to date</t>
+  </si>
+  <si>
+    <t>Date diff</t>
+  </si>
+  <si>
+    <t>DB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select BDPNOTE,                                                                 
+       DAYS(TIMESTAMP_FORMAT(DIGITS(BDPEFFD),'YYYYMMDD')) -
+       DAYS(TIMESTAMP_FORMAT(DIGITS(BDPDUED),'YYYYMMDD'))  
+from ymyles/bdppay                                         
+where bdpeffd - bdpdued &gt;0                                 </t>
   </si>
 </sst>
 </file>
@@ -842,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.5" customHeight="1"/>
@@ -861,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -869,32 +879,32 @@
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="37.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
@@ -902,370 +912,381 @@
     </row>
     <row r="5" spans="1:4" ht="37.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="37.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="37.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="37.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="37.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="37.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="37.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="37.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="37.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="37.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="37.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="37.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="37.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="37.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="37.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="37.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="37.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="37.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="37.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="37.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="37.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="37.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="37.5" customHeight="1">
       <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="37.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="37.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="37.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="37.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="37.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="37.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="37.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="37.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="37.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>69</v>
+      <c r="C39" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/sql_lib.xlsx
+++ b/sql_lib.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>Language</t>
   </si>
@@ -443,6 +443,27 @@
        DAYS(TIMESTAMP_FORMAT(DIGITS(BDPDUED),'YYYYMMDD'))  
 from ymyles/bdppay                                         
 where bdpeffd - bdpdued &gt;0                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receipee: distinguish which file is bigger for 2 version of file with same structure </t>
+  </si>
+  <si>
+    <t>1. Find out the key set of the file structure, if below 2 sqls are both 0, means the set can be used to key this 2 files:
+&gt;    SELECT count(*)                       
+&gt;    FROM zusrlib/lnp00701                 
+&gt;    GROUP BY lhnote, lhrecn, lhpost        
+&gt;    having count(*) &gt; 1;
+&gt;    SELECT count(*)                       
+&gt;    FROM ieom/lnp00701                 
+&gt;    GROUP BY lhnote, lhrecn, lhpost        
+&gt;    having count(*) &gt; 1                   
+2. Use the key set to calculation how much common record between 2 files:
+&gt;    select count(*)                            
+&gt;    from ifrs201110/lnp00701                   
+&gt;    where (lhnote, lhrecn, lhpost) not in (    
+&gt;        select lhnote, lhrecn, lhpost              
+&gt;        from ifrs201111/lnp00701                   
+&gt;    )  ;</t>
   </si>
 </sst>
 </file>
@@ -852,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.5" customHeight="1"/>
@@ -1287,6 +1308,17 @@
       </c>
       <c r="C39" s="4" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
